--- a/output/Client Promo Calc 2025.xlsx
+++ b/output/Client Promo Calc 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculator" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Breaks Reference" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Calculator" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Price Breaks Reference" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,21 +533,21 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>27 oz Tritan Wide Mouth Water Bottle</t>
+          <t>Laser-Engraved Wood Box with Custom Etched Wine</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5">
-        <f>IF(C3&gt;=960,7.21,IF(C3&gt;=480,7.58,IF(C3&gt;=240,8.0,IF(C3&gt;=96,8.27,8.43))))</f>
+        <f>IF(C3&gt;=300,136.36,IF(C3&gt;=204,138.69,IF(C3&gt;=108,142.38,IF(C3&gt;=48,147.76,154.05))))</f>
         <v/>
       </c>
       <c r="E3" s="5" t="n">
-        <v>57.5</v>
+        <v>93.75</v>
       </c>
       <c r="F3" s="5">
         <f>D3*C3+E3</f>
@@ -561,21 +561,21 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Callaway Flix Lite Pouch Pack</t>
+          <t>Laser-Engraved Wood Box with Custom Etched Wines</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5">
-        <f>IF(C4&gt;=288,25.97,IF(C4&gt;=144,26.26,IF(C4&gt;=48,26.96,27.24)))</f>
+        <f>IF(C4&gt;=300,150.45,IF(C4&gt;=204,155.08,IF(C4&gt;=108,161.68,IF(C4&gt;=48,170.85,183.16))))</f>
         <v/>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="F4" s="5">
         <f>D4*C4+E4</f>
@@ -589,21 +589,21 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Mini Presentation Box Flix Pro 2.0</t>
+          <t>Laser-Engraved Wood Box with Custom Etched Wine</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
-        <f>IF(C5&gt;=288,23.76,IF(C5&gt;=144,24.35,24.92))</f>
+        <f>IF(C5&gt;=300,92.8,IF(C5&gt;=204,95.13,IF(C5&gt;=108,98.43,IF(C5&gt;=48,103.0,109.17))))</f>
         <v/>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="F5" s="5">
         <f>D5*C5+E5</f>
@@ -617,21 +617,21 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Dormie Towel Mini Presentation Box Flix Pro 2.0</t>
+          <t>Etched Cabernet Sauvignon Red Wine Bottle</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5">
-        <f>IF(C6&gt;=144,26.44,IF(C6&gt;=48,27.02,27.58))</f>
+        <f>IF(C6&gt;=300,58.8,IF(C6&gt;=204,61.12,IF(C6&gt;=108,64.42,IF(C6&gt;=48,69.0,75.16))))</f>
         <v/>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0</v>
+        <v>156.25</v>
       </c>
       <c r="F6" s="5">
         <f>D6*C6+E6</f>
@@ -645,21 +645,21 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Stainless Credit Card Bottle Opener</t>
+          <t>Etched Chardonnay White Wine Bottle</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
-        <f>IF(C7&gt;=2500,1.69,IF(C7&gt;=1000,1.74,IF(C7&gt;=500,1.79,1.85)))</f>
+        <f>IF(C7&gt;=300,58.8,IF(C7&gt;=204,61.12,IF(C7&gt;=108,64.42,IF(C7&gt;=48,69.0,75.16))))</f>
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60</v>
+        <v>156.25</v>
       </c>
       <c r="F7" s="5">
         <f>D7*C7+E7</f>
@@ -673,21 +673,21 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Versa Eco Friendly Tech Organizer Pouch</t>
+          <t>Etched Pinot Noir Red Wine Bottle</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5">
-        <f>IF(C8&gt;=1000,10.99,IF(C8&gt;=500,11.49,IF(C8&gt;=300,11.99,IF(C8&gt;=100,12.49,12.99))))</f>
+        <f>IF(C8&gt;=300,58.8,IF(C8&gt;=204,61.12,IF(C8&gt;=108,64.42,IF(C8&gt;=48,69.0,75.16))))</f>
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27.5</v>
+        <v>156.25</v>
       </c>
       <c r="F8" s="5">
         <f>D8*C8+E8</f>
@@ -701,21 +701,21 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Fuzzerator Lint Brush</t>
+          <t>Etched The Prisoner Red Blend Wine Bottle</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5">
-        <f>IF(C9&gt;=2500,3.69,IF(C9&gt;=1000,3.78,IF(C9&gt;=500,3.86,4.22)))</f>
+        <f>IF(C9&gt;=300,138.31,IF(C9&gt;=204,140.62,IF(C9&gt;=108,143.92,IF(C9&gt;=48,148.5,154.66))))</f>
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>60</v>
+        <v>156.25</v>
       </c>
       <c r="F9" s="5">
         <f>D9*C9+E9</f>
@@ -729,21 +729,21 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Gripa Alligator Fridge Memo / Chip Clip</t>
+          <t>Etched Stag's Leap Cellars Artemis Cabernet Red Wine Bottle</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5">
-        <f>IF(C10&gt;=5000,1.25,IF(C10&gt;=2500,1.4,IF(C10&gt;=1000,1.55,1.7)))</f>
+        <f>IF(C10&gt;=300,213.7,IF(C10&gt;=204,216.03,IF(C10&gt;=108,219.33,IF(C10&gt;=48,223.9,270.06))))</f>
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62.5</v>
+        <v>156.25</v>
       </c>
       <c r="F10" s="5">
         <f>D10*C10+E10</f>
@@ -757,21 +757,21 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Full Color Neoprene Wristband with Bottle Opener</t>
+          <t>Etched Charles Krug Cabernet Napa Red Wine Bottle</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
-        <f>IF(C11&gt;=2500,2.59,IF(C11&gt;=1000,2.9,IF(C11&gt;=500,3.21,IF(C11&gt;=250,3.53,3.84))))</f>
+        <f>IF(C11&gt;=300,103.72,IF(C11&gt;=204,106.05,IF(C11&gt;=108,109.35,IF(C11&gt;=48,113.92,124.38))))</f>
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45</v>
+        <v>156.25</v>
       </c>
       <c r="F11" s="5">
         <f>D11*C11+E11</f>
@@ -785,21 +785,21 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>TerraTone™ 3-In-1 Charging Cable</t>
+          <t>Etched Far Niente Cabernet Red Wine Bottle</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5">
-        <f>IF(C12&gt;=100,12.45,IF(C12&gt;=50,13.08,IF(C12&gt;=25,13.38,IF(C12&gt;=10,13.7,17.12))))</f>
+        <f>IF(C12&gt;=300,282.3,IF(C12&gt;=204,284.62,IF(C12&gt;=108,287.92,IF(C12&gt;=48,292.5,358.66))))</f>
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0</v>
+        <v>156.25</v>
       </c>
       <c r="F12" s="5">
         <f>D12*C12+E12</f>
@@ -813,21 +813,21 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Confetti Stress Ball</t>
+          <t>Etched Cakebread Cabernet Red Wine Bottle</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5">
-        <f>IF(C13&gt;=2500,3.45,IF(C13&gt;=1000,3.62,IF(C13&gt;=500,3.71,IF(C13&gt;=250,3.8,4.14))))</f>
+        <f>IF(C13&gt;=300,242.31,IF(C13&gt;=204,244.62,IF(C13&gt;=108,247.92,IF(C13&gt;=48,252.51,263.67))))</f>
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60</v>
+        <v>156.25</v>
       </c>
       <c r="F13" s="5">
         <f>D13*C13+E13</f>
@@ -841,21 +841,21 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Think Green Recycled Notepad &amp; Pen</t>
+          <t>Etched Robert Mondavi Private Select Cabernet Red Wine</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5">
-        <f>IF(C14&gt;=5000,1.95,IF(C14&gt;=2500,2.02,IF(C14&gt;=1000,2.11,IF(C14&gt;=500,2.2,2.32))))</f>
+        <f>IF(C14&gt;=300,42.3,IF(C14&gt;=204,44.62,IF(C14&gt;=108,67.84,IF(C14&gt;=48,72.42,80.1))))</f>
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60</v>
+        <v>156.25</v>
       </c>
       <c r="F14" s="5">
         <f>D14*C14+E14</f>
@@ -869,21 +869,21 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Unisex Knitted Dress Sock</t>
+          <t>Etched Coppola Diamond Cabernet Red Wine Bottle</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D15" s="5">
-        <f>IF(C15&gt;=2500,6.12,IF(C15&gt;=1000,6.39,IF(C15&gt;=500,7.04,IF(C15&gt;=250,9.45,IF(C15&gt;=100,12.61,16.8)))))</f>
+        <f>IF(C15&gt;=300,67.98,IF(C15&gt;=204,70.3,IF(C15&gt;=108,73.6,IF(C15&gt;=48,78.19,91.47))))</f>
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0</v>
+        <v>156.25</v>
       </c>
       <c r="F15" s="5">
         <f>D15*C15+E15</f>
@@ -897,21 +897,21 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Port &amp; Co™ Tri-Blend Tee.</t>
+          <t>Etched Duckhorn Decoy Cabernet Red Wine Bottle</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5">
-        <f>IF(C16&gt;=72,8.26,10.26)</f>
+        <f>IF(C16&gt;=300,83.02,IF(C16&gt;=204,85.35,IF(C16&gt;=108,88.65,IF(C16&gt;=48,93.93,106.29))))</f>
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0</v>
+        <v>156.25</v>
       </c>
       <c r="F16" s="5">
         <f>D16*C16+E16</f>
@@ -923,17 +923,325 @@
       </c>
     </row>
     <row r="17">
-      <c r="E17" s="6" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Etched Jordan Cabernet Alexander Valley Red Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <f>IF(C17&gt;=300,172.3,IF(C17&gt;=204,174.63,IF(C17&gt;=108,177.93,IF(C17&gt;=48,182.5,190.08))))</f>
+        <v/>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F17" s="5">
+        <f>D17*C17+E17</f>
+        <v/>
+      </c>
+      <c r="G17" s="5">
+        <f>F17*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Etched Taittinger Brut La Francaise Champagne Bottle</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5">
+        <f>IF(C18&gt;=300,150.31,IF(C18&gt;=204,152.62,IF(C18&gt;=108,155.92,IF(C18&gt;=48,164.5,186.66))))</f>
+        <v/>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F18" s="5">
+        <f>D18*C18+E18</f>
+        <v/>
+      </c>
+      <c r="G18" s="5">
+        <f>F18*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Etched Far Niente Chardonnay White Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5">
+        <f>IF(C19&gt;=300,175.65,IF(C19&gt;=204,177.96,IF(C19&gt;=108,181.26,IF(C19&gt;=48,185.85,200.01))))</f>
+        <v/>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F19" s="5">
+        <f>D19*C19+E19</f>
+        <v/>
+      </c>
+      <c r="G19" s="5">
+        <f>F19*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Etched Franciscan Napa Chardonnay White Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5">
+        <f>IF(C20&gt;=300,86.26,IF(C20&gt;=204,88.59,IF(C20&gt;=108,91.89,IF(C20&gt;=48,96.46,102.63))))</f>
+        <v/>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F20" s="5">
+        <f>D20*C20+E20</f>
+        <v/>
+      </c>
+      <c r="G20" s="5">
+        <f>F20*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Etched Yatir Mt. Amasa Kosher White Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5">
+        <f>IF(C21&gt;=300,117.09,IF(C21&gt;=204,119.4,IF(C21&gt;=108,122.7,IF(C21&gt;=48,127.29,133.44))))</f>
+        <v/>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F21" s="5">
+        <f>D21*C21+E21</f>
+        <v/>
+      </c>
+      <c r="G21" s="5">
+        <f>F21*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Etched Flowers Rose Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5">
+        <f>IF(C22&gt;=300,85.17,IF(C22&gt;=204,87.48,IF(C22&gt;=108,90.78,IF(C22&gt;=48,95.37,135.81))))</f>
+        <v/>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F22" s="5">
+        <f>D22*C22+E22</f>
+        <v/>
+      </c>
+      <c r="G22" s="5">
+        <f>F22*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Etched Robert Mondavi Napa Valley Chardonnay Bottle</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5">
+        <f>IF(C23&gt;=300,112.3,IF(C23&gt;=204,114.63,IF(C23&gt;=108,117.93,IF(C23&gt;=48,122.5,132.66))))</f>
+        <v/>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F23" s="5">
+        <f>D23*C23+E23</f>
+        <v/>
+      </c>
+      <c r="G23" s="5">
+        <f>F23*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Etched Duckhorn Decoy Chardonnay White Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5">
+        <f>IF(C24&gt;=300,78.27,IF(C24&gt;=204,80.58,IF(C24&gt;=108,83.88,IF(C24&gt;=48,88.47,96.64))))</f>
+        <v/>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F24" s="5">
+        <f>D24*C24+E24</f>
+        <v/>
+      </c>
+      <c r="G24" s="5">
+        <f>F24*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Laser-Engraved Wood Box w/Custom Etched Chardonnay Wine</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5">
+        <f>IF(C25&gt;=300,136.36,IF(C25&gt;=204,138.69,IF(C25&gt;=108,142.38,IF(C25&gt;=48,147.76,154.05))))</f>
+        <v/>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="F25" s="5">
+        <f>D25*C25+E25</f>
+        <v/>
+      </c>
+      <c r="G25" s="5">
+        <f>F25*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Laser-Engraved Wood Box w/Custom Etched Pinot Noir Wine</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5">
+        <f>IF(C26&gt;=300,136.36,IF(C26&gt;=204,138.69,IF(C26&gt;=108,142.38,IF(C26&gt;=48,147.76,154.05))))</f>
+        <v/>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="F26" s="5">
+        <f>D26*C26+E26</f>
+        <v/>
+      </c>
+      <c r="G26" s="5">
+        <f>F26*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Etched Beringer Knight's Valley Cabernet Red Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5">
+        <f>IF(C27&gt;=300,96.88,IF(C27&gt;=204,99.2,IF(C27&gt;=108,102.5,IF(C27&gt;=48,107.88,115.38))))</f>
+        <v/>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F27" s="5">
+        <f>D27*C27+E27</f>
+        <v/>
+      </c>
+      <c r="G27" s="5">
+        <f>F27*0.15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>TOTALS:</t>
         </is>
       </c>
-      <c r="F17" s="7">
-        <f>SUM(F3:F16)</f>
-        <v/>
-      </c>
-      <c r="G17" s="7">
-        <f>SUM(G3:G16)</f>
+      <c r="F28" s="7">
+        <f>SUM(F3:F27)</f>
+        <v/>
+      </c>
+      <c r="G28" s="7">
+        <f>SUM(G3:G27)</f>
         <v/>
       </c>
     </row>
@@ -951,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,16 +1298,16 @@
     <row r="2">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>27 oz Tritan Wide Mouth Water Bottle</t>
+          <t>Laser-Engraved Wood Box with Custom Etched Wine</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>48+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C2" s="10" t="n">
-        <v>8.43</v>
+        <v>154.05</v>
       </c>
       <c r="D2" s="9" t="n"/>
     </row>
@@ -1007,11 +1315,11 @@
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>96+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>8.27</v>
+        <v>147.76</v>
       </c>
       <c r="D3" s="3" t="inlineStr"/>
     </row>
@@ -1019,11 +1327,11 @@
       <c r="A4" s="9" t="inlineStr"/>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>240+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C4" s="10" t="n">
-        <v>8</v>
+        <v>142.38</v>
       </c>
       <c r="D4" s="9" t="inlineStr"/>
     </row>
@@ -1031,11 +1339,11 @@
       <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>480+</t>
+          <t>204+</t>
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.58</v>
+        <v>138.69</v>
       </c>
       <c r="D5" s="3" t="inlineStr"/>
     </row>
@@ -1043,33 +1351,29 @@
       <c r="A6" s="9" t="inlineStr"/>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>960+</t>
+          <t>300+</t>
         </is>
       </c>
       <c r="C6" s="10" t="n">
-        <v>7.21</v>
+        <v>136.36</v>
       </c>
       <c r="D6" s="9" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>Callaway Flix Lite Pouch Pack</t>
+          <t>Laser-Engraved Wood Box with Custom Etched Wines</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>24+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C8" s="10" t="n">
-        <v>27.24</v>
-      </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>4 color process</t>
-        </is>
-      </c>
+        <v>183.16</v>
+      </c>
+      <c r="D8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr"/>
@@ -1079,7 +1383,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>26.96</v>
+        <v>170.85</v>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
     </row>
@@ -1087,11 +1391,11 @@
       <c r="A10" s="9" t="inlineStr"/>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>144+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C10" s="10" t="n">
-        <v>26.26</v>
+        <v>161.68</v>
       </c>
       <c r="D10" s="9" t="inlineStr"/>
     </row>
@@ -1099,131 +1403,135 @@
       <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>288+</t>
+          <t>204+</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25.97</v>
+        <v>155.08</v>
       </c>
       <c r="D11" s="3" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Mini Presentation Box Flix Pro 2.0</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>48+</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>24.92</v>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>4 color process</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="inlineStr"/>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>150.45</v>
+      </c>
+      <c r="D12" s="9" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="inlineStr"/>
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>Laser-Engraved Wood Box with Custom Etched Wine</t>
+        </is>
+      </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>144+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C14" s="10" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr"/>
+        <v>109.17</v>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>288+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.76</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" s="9" t="inlineStr"/>
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>98.43000000000001</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr"/>
+    </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Dormie Towel Mini Presentation Box Flix Pro 2.0</t>
-        </is>
-      </c>
+      <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>24+</t>
+          <t>204+</t>
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>27.58</v>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>4 color process</t>
-        </is>
-      </c>
+        <v>95.13</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr"/>
       <c r="B18" s="9" t="inlineStr">
         <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D18" s="9" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>Etched Cabernet Sauvignon Red Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>75.16</v>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
           <t>48+</t>
         </is>
       </c>
-      <c r="C18" s="10" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="D18" s="9" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>144+</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>26.44</v>
-      </c>
-      <c r="D19" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Stainless Credit Card Bottle Opener</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>250+</t>
-        </is>
-      </c>
       <c r="C21" s="5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>Laser engraving;1 side only</t>
-        </is>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr"/>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>500+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C22" s="10" t="n">
-        <v>1.79</v>
+        <v>64.42</v>
       </c>
       <c r="D22" s="9" t="inlineStr"/>
     </row>
@@ -1231,11 +1539,11 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>1000+</t>
+          <t>204+</t>
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.74</v>
+        <v>61.12</v>
       </c>
       <c r="D23" s="3" t="inlineStr"/>
     </row>
@@ -1243,39 +1551,43 @@
       <c r="A24" s="9" t="inlineStr"/>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>2500+</t>
+          <t>300+</t>
         </is>
       </c>
       <c r="C24" s="10" t="n">
-        <v>1.69</v>
+        <v>58.8</v>
       </c>
       <c r="D24" s="9" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Versa Eco Friendly Tech Organizer Pouch</t>
+          <t>Etched Chardonnay White Wine Bottle</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>50+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C26" s="10" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="D26" s="9" t="n"/>
+        <v>75.16</v>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>100+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.49</v>
+        <v>69</v>
       </c>
       <c r="D27" s="3" t="inlineStr"/>
     </row>
@@ -1283,11 +1595,11 @@
       <c r="A28" s="9" t="inlineStr"/>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>300+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C28" s="10" t="n">
-        <v>11.99</v>
+        <v>64.42</v>
       </c>
       <c r="D28" s="9" t="inlineStr"/>
     </row>
@@ -1295,11 +1607,11 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>500+</t>
+          <t>204+</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>11.49</v>
+        <v>61.12</v>
       </c>
       <c r="D29" s="3" t="inlineStr"/>
     </row>
@@ -1307,31 +1619,31 @@
       <c r="A30" s="9" t="inlineStr"/>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>1000+</t>
+          <t>300+</t>
         </is>
       </c>
       <c r="C30" s="10" t="n">
-        <v>10.99</v>
+        <v>58.8</v>
       </c>
       <c r="D30" s="9" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Fuzzerator Lint Brush</t>
+          <t>Etched Pinot Noir Red Wine Bottle</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>250+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C32" s="10" t="n">
-        <v>4.22</v>
+        <v>75.16</v>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>1 Color;1 Location</t>
+          <t>One color fill</t>
         </is>
       </c>
     </row>
@@ -1339,11 +1651,11 @@
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>500+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C33" s="5" t="n">
-        <v>3.86</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3" t="inlineStr"/>
     </row>
@@ -1351,11 +1663,11 @@
       <c r="A34" s="9" t="inlineStr"/>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>1000+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C34" s="10" t="n">
-        <v>3.78</v>
+        <v>64.42</v>
       </c>
       <c r="D34" s="9" t="inlineStr"/>
     </row>
@@ -1363,55 +1675,55 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>2500+</t>
+          <t>204+</t>
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.69</v>
+        <v>61.12</v>
       </c>
       <c r="D35" s="3" t="inlineStr"/>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Gripa Alligator Fridge Memo / Chip Clip</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr"/>
+      <c r="B36" s="9" t="inlineStr">
         <is>
           <t>300+</t>
         </is>
       </c>
-      <c r="C37" s="5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>1 color;1 side;1 location</t>
-        </is>
-      </c>
+      <c r="C36" s="10" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D36" s="9" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="inlineStr"/>
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Etched The Prisoner Red Blend Wine Bottle</t>
+        </is>
+      </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>1000+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C38" s="10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="D38" s="9" t="inlineStr"/>
+        <v>154.66</v>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>2500+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C39" s="5" t="n">
-        <v>1.4</v>
+        <v>148.5</v>
       </c>
       <c r="D39" s="3" t="inlineStr"/>
     </row>
@@ -1419,67 +1731,67 @@
       <c r="A40" s="9" t="inlineStr"/>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>5000+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C40" s="10" t="n">
-        <v>1.25</v>
+        <v>143.92</v>
       </c>
       <c r="D40" s="9" t="inlineStr"/>
     </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>140.62</v>
+      </c>
+      <c r="D41" s="3" t="inlineStr"/>
+    </row>
     <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>Full Color Neoprene Wristband with Bottle Opener</t>
-        </is>
-      </c>
+      <c r="A42" s="9" t="inlineStr"/>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>100+</t>
+          <t>300+</t>
         </is>
       </c>
       <c r="C42" s="10" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D42" s="9" t="inlineStr">
-        <is>
-          <t>Full Color;1 location</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr"/>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>250+</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="D43" s="3" t="inlineStr"/>
+        <v>138.31</v>
+      </c>
+      <c r="D42" s="9" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="inlineStr"/>
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Etched Stag's Leap Cellars Artemis Cabernet Red Wine Bottle</t>
+        </is>
+      </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>500+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C44" s="10" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="D44" s="9" t="inlineStr"/>
+        <v>270.06</v>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>1000+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C45" s="5" t="n">
-        <v>2.9</v>
+        <v>223.9</v>
       </c>
       <c r="D45" s="3" t="inlineStr"/>
     </row>
@@ -1487,67 +1799,67 @@
       <c r="A46" s="9" t="inlineStr"/>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>2500+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C46" s="10" t="n">
-        <v>2.59</v>
+        <v>219.33</v>
       </c>
       <c r="D46" s="9" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>216.03</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr"/>
+    </row>
     <row r="48">
-      <c r="A48" s="9" t="inlineStr">
-        <is>
-          <t>TerraTone™ 3-In-1 Charging Cable</t>
-        </is>
-      </c>
+      <c r="A48" s="9" t="inlineStr"/>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>1+</t>
+          <t>300+</t>
         </is>
       </c>
       <c r="C48" s="10" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="D48" s="9" t="inlineStr">
-        <is>
-          <t>Full color</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr"/>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D49" s="3" t="inlineStr"/>
+        <v>213.7</v>
+      </c>
+      <c r="D48" s="9" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="inlineStr"/>
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Etched Charles Krug Cabernet Napa Red Wine Bottle</t>
+        </is>
+      </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>25+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C50" s="10" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="D50" s="9" t="inlineStr"/>
+        <v>124.38</v>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>50+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C51" s="5" t="n">
-        <v>13.08</v>
+        <v>113.92</v>
       </c>
       <c r="D51" s="3" t="inlineStr"/>
     </row>
@@ -1555,67 +1867,67 @@
       <c r="A52" s="9" t="inlineStr"/>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>100+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C52" s="10" t="n">
-        <v>12.45</v>
+        <v>109.35</v>
       </c>
       <c r="D52" s="9" t="inlineStr"/>
     </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>106.05</v>
+      </c>
+      <c r="D53" s="3" t="inlineStr"/>
+    </row>
     <row r="54">
-      <c r="A54" s="9" t="inlineStr">
-        <is>
-          <t>Confetti Stress Ball</t>
-        </is>
-      </c>
+      <c r="A54" s="9" t="inlineStr"/>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>100+</t>
+          <t>300+</t>
         </is>
       </c>
       <c r="C54" s="10" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D54" s="9" t="inlineStr">
-        <is>
-          <t>1 Color;1 Location</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr"/>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>250+</t>
-        </is>
-      </c>
-      <c r="C55" s="5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D55" s="3" t="inlineStr"/>
+        <v>103.72</v>
+      </c>
+      <c r="D54" s="9" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="inlineStr"/>
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>Etched Far Niente Cabernet Red Wine Bottle</t>
+        </is>
+      </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>500+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C56" s="10" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="D56" s="9" t="inlineStr"/>
+        <v>358.66</v>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>1000+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C57" s="5" t="n">
-        <v>3.62</v>
+        <v>292.5</v>
       </c>
       <c r="D57" s="3" t="inlineStr"/>
     </row>
@@ -1623,67 +1935,67 @@
       <c r="A58" s="9" t="inlineStr"/>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>2500+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C58" s="10" t="n">
-        <v>3.45</v>
+        <v>287.92</v>
       </c>
       <c r="D58" s="9" t="inlineStr"/>
     </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>284.62</v>
+      </c>
+      <c r="D59" s="3" t="inlineStr"/>
+    </row>
     <row r="60">
-      <c r="A60" s="9" t="inlineStr">
-        <is>
-          <t>Think Green Recycled Notepad &amp; Pen</t>
-        </is>
-      </c>
+      <c r="A60" s="9" t="inlineStr"/>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>150+</t>
+          <t>300+</t>
         </is>
       </c>
       <c r="C60" s="10" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="D60" s="9" t="inlineStr">
-        <is>
-          <t>1 color;1 side;1 location</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr"/>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>500+</t>
-        </is>
-      </c>
-      <c r="C61" s="5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D61" s="3" t="inlineStr"/>
+        <v>282.3</v>
+      </c>
+      <c r="D60" s="9" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="inlineStr"/>
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>Etched Cakebread Cabernet Red Wine Bottle</t>
+        </is>
+      </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>1000+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C62" s="10" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D62" s="9" t="inlineStr"/>
+        <v>263.67</v>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>2500+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C63" s="5" t="n">
-        <v>2.02</v>
+        <v>252.51</v>
       </c>
       <c r="D63" s="3" t="inlineStr"/>
     </row>
@@ -1691,67 +2003,67 @@
       <c r="A64" s="9" t="inlineStr"/>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>5000+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C64" s="10" t="n">
-        <v>1.95</v>
+        <v>247.92</v>
       </c>
       <c r="D64" s="9" t="inlineStr"/>
     </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr"/>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>244.62</v>
+      </c>
+      <c r="D65" s="3" t="inlineStr"/>
+    </row>
     <row r="66">
-      <c r="A66" s="9" t="inlineStr">
-        <is>
-          <t>Unisex Knitted Dress Sock</t>
-        </is>
-      </c>
+      <c r="A66" s="9" t="inlineStr"/>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>50+</t>
+          <t>300+</t>
         </is>
       </c>
       <c r="C66" s="10" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="D66" s="9" t="inlineStr">
-        <is>
-          <t>Full color</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr"/>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>100+</t>
-        </is>
-      </c>
-      <c r="C67" s="5" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="D67" s="3" t="inlineStr"/>
+        <v>242.31</v>
+      </c>
+      <c r="D66" s="9" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="inlineStr"/>
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>Etched Robert Mondavi Private Select Cabernet Red Wine</t>
+        </is>
+      </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>250+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C68" s="10" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D68" s="9" t="inlineStr"/>
+        <v>80.09999999999999</v>
+      </c>
+      <c r="D68" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr"/>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>500+</t>
+          <t>48+</t>
         </is>
       </c>
       <c r="C69" s="5" t="n">
-        <v>7.04</v>
+        <v>72.42</v>
       </c>
       <c r="D69" s="3" t="inlineStr"/>
     </row>
@@ -1759,11 +2071,11 @@
       <c r="A70" s="9" t="inlineStr"/>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>1000+</t>
+          <t>108+</t>
         </is>
       </c>
       <c r="C70" s="10" t="n">
-        <v>6.39</v>
+        <v>67.84</v>
       </c>
       <c r="D70" s="9" t="inlineStr"/>
     </row>
@@ -1771,45 +2083,909 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>2500+</t>
+          <t>204+</t>
         </is>
       </c>
       <c r="C71" s="5" t="n">
-        <v>6.12</v>
+        <v>44.62</v>
       </c>
       <c r="D71" s="3" t="inlineStr"/>
     </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>Port &amp; Co™ Tri-Blend Tee.</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>1+</t>
-        </is>
-      </c>
-      <c r="C73" s="5" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
+    <row r="72">
+      <c r="A72" s="9" t="inlineStr"/>
+      <c r="B72" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C72" s="10" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D72" s="9" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="inlineStr"/>
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>Etched Coppola Diamond Cabernet Red Wine Bottle</t>
+        </is>
+      </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>72+</t>
+          <t>12+</t>
         </is>
       </c>
       <c r="C74" s="10" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="D74" s="9" t="inlineStr"/>
+        <v>91.47</v>
+      </c>
+      <c r="D74" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr"/>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>78.19</v>
+      </c>
+      <c r="D75" s="3" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr"/>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C76" s="10" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D76" s="9" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr"/>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D77" s="3" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr"/>
+      <c r="B78" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C78" s="10" t="n">
+        <v>67.98</v>
+      </c>
+      <c r="D78" s="9" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>Etched Duckhorn Decoy Cabernet Red Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C80" s="10" t="n">
+        <v>106.29</v>
+      </c>
+      <c r="D80" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr"/>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>93.93000000000001</v>
+      </c>
+      <c r="D81" s="3" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="inlineStr"/>
+      <c r="B82" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C82" s="10" t="n">
+        <v>88.65000000000001</v>
+      </c>
+      <c r="D82" s="9" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr"/>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="D83" s="3" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="inlineStr"/>
+      <c r="B84" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C84" s="10" t="n">
+        <v>83.02</v>
+      </c>
+      <c r="D84" s="9" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="inlineStr">
+        <is>
+          <t>Etched Jordan Cabernet Alexander Valley Red Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B86" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C86" s="10" t="n">
+        <v>190.08</v>
+      </c>
+      <c r="D86" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr"/>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="D87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="inlineStr"/>
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C88" s="10" t="n">
+        <v>177.93</v>
+      </c>
+      <c r="D88" s="9" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr"/>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>174.63</v>
+      </c>
+      <c r="D89" s="3" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="inlineStr"/>
+      <c r="B90" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C90" s="10" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="D90" s="9" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>Etched Taittinger Brut La Francaise Champagne Bottle</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C92" s="10" t="n">
+        <v>186.66</v>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr"/>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="D93" s="3" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr"/>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C94" s="10" t="n">
+        <v>155.92</v>
+      </c>
+      <c r="D94" s="9" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr"/>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>152.62</v>
+      </c>
+      <c r="D95" s="3" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr"/>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C96" s="10" t="n">
+        <v>150.31</v>
+      </c>
+      <c r="D96" s="9" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Etched Far Niente Chardonnay White Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C98" s="10" t="n">
+        <v>200.01</v>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr"/>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>185.85</v>
+      </c>
+      <c r="D99" s="3" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr"/>
+      <c r="B100" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C100" s="10" t="n">
+        <v>181.26</v>
+      </c>
+      <c r="D100" s="9" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr"/>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>177.96</v>
+      </c>
+      <c r="D101" s="3" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr"/>
+      <c r="B102" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C102" s="10" t="n">
+        <v>175.65</v>
+      </c>
+      <c r="D102" s="9" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Etched Franciscan Napa Chardonnay White Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C104" s="10" t="n">
+        <v>102.63</v>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr"/>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>96.45999999999999</v>
+      </c>
+      <c r="D105" s="3" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr"/>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C106" s="10" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="D106" s="9" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr"/>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>88.59</v>
+      </c>
+      <c r="D107" s="3" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr"/>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C108" s="10" t="n">
+        <v>86.26000000000001</v>
+      </c>
+      <c r="D108" s="9" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Etched Yatir Mt. Amasa Kosher White Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C110" s="10" t="n">
+        <v>133.44</v>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr"/>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>127.29</v>
+      </c>
+      <c r="D111" s="3" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr"/>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C112" s="10" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="D112" s="9" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr"/>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="D113" s="3" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr"/>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C114" s="10" t="n">
+        <v>117.09</v>
+      </c>
+      <c r="D114" s="9" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Etched Flowers Rose Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C116" s="10" t="n">
+        <v>135.81</v>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr"/>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>95.37</v>
+      </c>
+      <c r="D117" s="3" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="inlineStr"/>
+      <c r="B118" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C118" s="10" t="n">
+        <v>90.78</v>
+      </c>
+      <c r="D118" s="9" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr"/>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C119" s="5" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="D119" s="3" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="inlineStr"/>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C120" s="10" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="D120" s="9" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Etched Robert Mondavi Napa Valley Chardonnay Bottle</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C122" s="10" t="n">
+        <v>132.66</v>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr"/>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="D123" s="3" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr"/>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C124" s="10" t="n">
+        <v>117.93</v>
+      </c>
+      <c r="D124" s="9" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr"/>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C125" s="5" t="n">
+        <v>114.63</v>
+      </c>
+      <c r="D125" s="3" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr"/>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C126" s="10" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="D126" s="9" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Etched Duckhorn Decoy Chardonnay White Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C128" s="10" t="n">
+        <v>96.64</v>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr"/>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>88.47</v>
+      </c>
+      <c r="D129" s="3" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="inlineStr"/>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C130" s="10" t="n">
+        <v>83.88</v>
+      </c>
+      <c r="D130" s="9" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr"/>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>80.58</v>
+      </c>
+      <c r="D131" s="3" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="inlineStr"/>
+      <c r="B132" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C132" s="10" t="n">
+        <v>78.27</v>
+      </c>
+      <c r="D132" s="9" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Laser-Engraved Wood Box w/Custom Etched Chardonnay Wine</t>
+        </is>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C134" s="10" t="n">
+        <v>154.05</v>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr"/>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C135" s="5" t="n">
+        <v>147.76</v>
+      </c>
+      <c r="D135" s="3" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="inlineStr"/>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C136" s="10" t="n">
+        <v>142.38</v>
+      </c>
+      <c r="D136" s="9" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr"/>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C137" s="5" t="n">
+        <v>138.69</v>
+      </c>
+      <c r="D137" s="3" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="inlineStr"/>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C138" s="10" t="n">
+        <v>136.36</v>
+      </c>
+      <c r="D138" s="9" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="inlineStr">
+        <is>
+          <t>Laser-Engraved Wood Box w/Custom Etched Pinot Noir Wine</t>
+        </is>
+      </c>
+      <c r="B140" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C140" s="10" t="n">
+        <v>154.05</v>
+      </c>
+      <c r="D140" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr"/>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C141" s="5" t="n">
+        <v>147.76</v>
+      </c>
+      <c r="D141" s="3" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="inlineStr"/>
+      <c r="B142" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C142" s="10" t="n">
+        <v>142.38</v>
+      </c>
+      <c r="D142" s="9" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr"/>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C143" s="5" t="n">
+        <v>138.69</v>
+      </c>
+      <c r="D143" s="3" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="inlineStr"/>
+      <c r="B144" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C144" s="10" t="n">
+        <v>136.36</v>
+      </c>
+      <c r="D144" s="9" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="inlineStr">
+        <is>
+          <t>Etched Beringer Knight's Valley Cabernet Red Wine Bottle</t>
+        </is>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="C146" s="10" t="n">
+        <v>115.38</v>
+      </c>
+      <c r="D146" s="9" t="inlineStr">
+        <is>
+          <t>One color fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr"/>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>48+</t>
+        </is>
+      </c>
+      <c r="C147" s="5" t="n">
+        <v>107.88</v>
+      </c>
+      <c r="D147" s="3" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="inlineStr"/>
+      <c r="B148" s="9" t="inlineStr">
+        <is>
+          <t>108+</t>
+        </is>
+      </c>
+      <c r="C148" s="10" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="D148" s="9" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr"/>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>204+</t>
+        </is>
+      </c>
+      <c r="C149" s="5" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D149" s="3" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr"/>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>300+</t>
+        </is>
+      </c>
+      <c r="C150" s="10" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="D150" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
